--- a/m0/XControl.xlsx
+++ b/m0/XControl.xlsx
@@ -9,11 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="24" r:id="rId27"/>
-    <sheet name="setting.ini" sheetId="23" r:id="rId26"/>
-    <sheet name="template-statefunc" sheetId="22" r:id="rId25"/>
-    <sheet name="template-source" sheetId="21" r:id="rId24"/>
-    <sheet name="config" sheetId="20" r:id="rId23"/>
+    <sheet name="help" sheetId="29" r:id="rId32"/>
+    <sheet name="setting.ini" sheetId="28" r:id="rId31"/>
+    <sheet name="template-statefunc" sheetId="27" r:id="rId30"/>
+    <sheet name="template-source" sheetId="26" r:id="rId29"/>
+    <sheet name="config" sheetId="25" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -670,6 +670,67 @@
 @@@
 fillter_state_location_list=@@@
 [{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":818,"y":143}},{"Key":"S_0001","Value":{"x":244,"y":318}},{"Key":"S_INPUT_ID","Value":{"x":240,"y":224}},{"Key":"S_0002","Value":{"x":404,"y":347}},{"Key":"S_INPUT_ID1","Value":{"x":234,"y":473}},{"Key":"S_PRINT","Value":{"x":486,"y":224}},{"Key":"S_PRINT1","Value":{"x":478,"y":382}},{"Key":"S_SELECT","Value":{"x":140,"y":407}},{"Key":"S_PRINT2","Value":{"x":478,"y":538}},{"Key":"S_ROOMA","Value":{"x":478,"y":382}},{"Key":"S_ROOMB","Value":{"x":478,"y":538}},{"Key":"S_PRINT3","Value":{"x":809,"y":559}},{"Key":"I_0001","Value":{"x":331,"y":48}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>echo :
+echo : your id is $id
+echo :</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/27 3:33:58
+; * pssgEditor version : 0.11.4460.e10f37f204369f1339906f807ad26ec0851e0c64
+psggfile=@@@
+XControl.psgg
+@@@
+xlsfile=@@@
+XControl.xlsx
+@@@
+guid=@@@
+44ccb1b5-25a2-4506-b2f0-b05adc2286ce
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":818,"y":143}},{"Key":"S_INPUT_ID","Value":{"x":240,"y":224}},{"Key":"S_PRINT","Value":{"x":486,"y":224}},{"Key":"S_SELECT","Value":{"x":140,"y":407}},{"Key":"S_ROOMA","Value":{"x":478,"y":382}},{"Key":"S_ROOMB","Value":{"x":478,"y":538}},{"Key":"I_0001","Value":{"x":331,"y":48}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1398,7 +1459,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>51</v>
@@ -1644,21 +1705,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1672,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1686,7 +1747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1700,7 +1761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/m0/XControl.xlsx
+++ b/m0/XControl.xlsx
@@ -9,11 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="29" r:id="rId32"/>
-    <sheet name="setting.ini" sheetId="28" r:id="rId31"/>
-    <sheet name="template-statefunc" sheetId="27" r:id="rId30"/>
-    <sheet name="template-source" sheetId="26" r:id="rId29"/>
-    <sheet name="config" sheetId="25" r:id="rId28"/>
+    <sheet name="help" sheetId="39" r:id="rId42"/>
+    <sheet name="setting.ini" sheetId="38" r:id="rId41"/>
+    <sheet name="template-statefunc" sheetId="37" r:id="rId40"/>
+    <sheet name="template-source" sheetId="36" r:id="rId39"/>
+    <sheet name="config" sheetId="35" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -749,6 +749,131 @@
 option_delete_br_string=1
 option_delete_bracket_string=1
 option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>/
+(100,100)
+This is the root</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/20 23:18:53
+; * pssgEditor version : 0.13.1381.bff676d6ba853330360a3a3d413c6a88baa5e5ad
+psggfile=@@@
+XControl.psgg
+@@@
+xlsfile=@@@
+XControl.xlsx
+@@@
+guid=@@@
+44ccb1b5-25a2-4506-b2f0-b05adc2286ce
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Left a path
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":818,"y":143}},{"Key":"S_INPUT_ID","Value":{"x":240,"y":224}},{"Key":"S_PRINT","Value":{"x":486,"y":224}},{"Key":"S_SELECT","Value":{"x":140,"y":407}},{"Key":"S_ROOMA","Value":{"x":478,"y":382}},{"Key":"S_ROOMB","Value":{"x":478,"y":538}},{"Key":"I_0001","Value":{"x":331,"y":48}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>echo : -- WHICH ROOM WILL YOU ENTER? --
+echo : A -- room A
+echo : B -- room B
+echo : X -- room X</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/20 23:22:56
+; * pssgEditor version : 0.13.1381.bff676d6ba853330360a3a3d413c6a88baa5e5ad
+psggfile=@@@
+XControl.psgg
+@@@
+xlsfile=@@@
+XControl.xlsx
+@@@
+guid=@@@
+44ccb1b5-25a2-4506-b2f0-b05adc2286ce
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":818,"y":143}},{"Key":"S_INPUT_ID","Value":{"x":240,"y":224}},{"Key":"S_PRINT","Value":{"x":486,"y":224}},{"Key":"S_SELECT","Value":{"x":140,"y":407}},{"Key":"S_ROOMA","Value":{"x":478,"y":382}},{"Key":"S_ROOMB","Value":{"x":478,"y":538}},{"Key":"I_0001","Value":{"x":331,"y":48}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
 font_name=@@@
 MS UI Gothic
 @@@
@@ -1465,7 +1590,7 @@
         <v>51</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>62</v>
@@ -1621,23 +1746,29 @@
       <c r="B26" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="D26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="F26" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" s="16" customFormat="true">
@@ -1705,21 +1836,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1733,7 +1864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1747,7 +1878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1761,7 +1892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/m0/XControl.xlsx
+++ b/m0/XControl.xlsx
@@ -9,11 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="39" r:id="rId42"/>
-    <sheet name="setting.ini" sheetId="38" r:id="rId41"/>
-    <sheet name="template-statefunc" sheetId="37" r:id="rId40"/>
-    <sheet name="template-source" sheetId="36" r:id="rId39"/>
-    <sheet name="config" sheetId="35" r:id="rId38"/>
+    <sheet name="help" sheetId="44" r:id="rId47"/>
+    <sheet name="setting.ini" sheetId="43" r:id="rId46"/>
+    <sheet name="template-statefunc" sheetId="42" r:id="rId45"/>
+    <sheet name="template-source" sheetId="41" r:id="rId44"/>
+    <sheet name="config" sheetId="40" r:id="rId43"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -829,6 +829,63 @@
   </si>
   <si>
     <t>; The setting was created automatically. 2018/10/20 23:22:56
+; * pssgEditor version : 0.13.1381.bff676d6ba853330360a3a3d413c6a88baa5e5ad
+psggfile=@@@
+XControl.psgg
+@@@
+xlsfile=@@@
+XControl.xlsx
+@@@
+guid=@@@
+44ccb1b5-25a2-4506-b2f0-b05adc2286ce
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":818,"y":143}},{"Key":"S_INPUT_ID","Value":{"x":240,"y":224}},{"Key":"S_PRINT","Value":{"x":486,"y":224}},{"Key":"S_SELECT","Value":{"x":140,"y":407}},{"Key":"S_ROOMA","Value":{"x":478,"y":382}},{"Key":"S_ROOMB","Value":{"x":478,"y":538}},{"Key":"I_0001","Value":{"x":331,"y":48}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+Code %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/20 23:27:12
 ; * pssgEditor version : 0.13.1381.bff676d6ba853330360a3a3d413c6a88baa5e5ad
 psggfile=@@@
 XControl.psgg
@@ -1836,21 +1893,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1864,7 +1921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1878,7 +1935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1892,7 +1949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
